--- a/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Fitoplancton/Matriz_Incidencia_Fito.xlsx
+++ b/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Fitoplancton/Matriz_Incidencia_Fito.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Fitoplancton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Expedición Pacífico\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Fitoplancton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B34D1A25-D9D7-4FA1-9DE3-45B9431FC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F006AFC4-04F3-4718-ADEB-80A5E11E5BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz_Incidencia_Fito" sheetId="2" r:id="rId1"/>
-    <sheet name="Transectos" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Transectos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz_Incidencia_Fito!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz_Incidencia_Fito!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="288">
   <si>
     <t>Transecto</t>
   </si>
@@ -732,12 +746,168 @@
   </si>
   <si>
     <t>Ama_Alta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinocyclus </t>
+  </si>
+  <si>
+    <t>Actinoptychus senarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandrium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asteromphalus </t>
+  </si>
+  <si>
+    <t>Asteromphalus flabellatus</t>
+  </si>
+  <si>
+    <t>Bacillaria paxillifera</t>
+  </si>
+  <si>
+    <t>Ceratocoris horrida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaetoceros </t>
+  </si>
+  <si>
+    <t>Chaetoceros lacinosus</t>
+  </si>
+  <si>
+    <t>Climacodium frauenfeldianum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coscinodiscopsis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coscinodiscus  </t>
+  </si>
+  <si>
+    <t>Coscinodiscus aff asteromphalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ditylum brightwellii </t>
+  </si>
+  <si>
+    <t>Entomoneis</t>
+  </si>
+  <si>
+    <t>Gonyaulax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyrosigma </t>
+  </si>
+  <si>
+    <t>Leptocylindrus danicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyrella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melosira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meuniera membranacea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navicula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitzschia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odontella </t>
+  </si>
+  <si>
+    <t>Ornithocercus</t>
+  </si>
+  <si>
+    <t>Ornithocercus steinii</t>
+  </si>
+  <si>
+    <t>Ornithocercus thumii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalacroma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plagiotropis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prorocentrum </t>
+  </si>
+  <si>
+    <t>Prorocentrum cordatum</t>
+  </si>
+  <si>
+    <t>Protoperidinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protoperidinium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protoperidinium  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudonitzschia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrocistis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrophacus </t>
+  </si>
+  <si>
+    <t>Rhizosolenia cf. habetata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripsiella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stellarima </t>
+  </si>
+  <si>
+    <t>Streptotheca tamesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surirella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synedra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassionema </t>
+  </si>
+  <si>
+    <t>Thalassionema nitzschioides/pseudonitzschioides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripos </t>
+  </si>
+  <si>
+    <t>Tripos declinatum</t>
+  </si>
+  <si>
+    <t>Tripos karstenii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripos lunula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripos teres </t>
+  </si>
+  <si>
+    <t>Tripos vultur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,17 +1451,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1631,12 +1791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:GI38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>193</v>
       </c>
@@ -3945,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>196</v>
       </c>
@@ -5095,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>198</v>
       </c>
@@ -6245,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>201</v>
       </c>
@@ -7395,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>203</v>
       </c>
@@ -8545,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -9120,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>206</v>
       </c>
@@ -9695,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>208</v>
       </c>
@@ -10270,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>209</v>
       </c>
@@ -10845,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>210</v>
       </c>
@@ -11420,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>211</v>
       </c>
@@ -11995,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>212</v>
       </c>
@@ -12570,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>213</v>
       </c>
@@ -13145,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
@@ -13720,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
@@ -14295,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>216</v>
       </c>
@@ -14870,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>217</v>
       </c>
@@ -15445,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>218</v>
       </c>
@@ -16020,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>219</v>
       </c>
@@ -16595,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>221</v>
       </c>
@@ -17170,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>222</v>
       </c>
@@ -17745,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>223</v>
       </c>
@@ -18320,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>224</v>
       </c>
@@ -18895,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>225</v>
       </c>
@@ -19470,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>226</v>
       </c>
@@ -20045,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>227</v>
       </c>
@@ -20620,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>228</v>
       </c>
@@ -21195,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>229</v>
       </c>
@@ -21770,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>230</v>
       </c>
@@ -22345,7 +22504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:191" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:191" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>231</v>
       </c>
@@ -22923,247 +23082,247 @@
     <row r="38" spans="1:191" x14ac:dyDescent="0.25">
       <c r="F38">
         <f t="shared" ref="F38:AK38" si="0">SUBTOTAL(9,F2:F37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AE38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AH38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AJ38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL38">
         <f t="shared" ref="AL38:BQ38" si="1">SUBTOTAL(9,AL2:AL37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AX38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="BA38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="BB38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC38">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="BD38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BE38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BF38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="BG38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH38">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BI38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38">
         <f t="shared" si="1"/>
@@ -23171,59 +23330,59 @@
       </c>
       <c r="BP38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BR38">
         <f t="shared" ref="BR38:CW38" si="2">SUBTOTAL(9,BR2:BR37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="BU38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BZ38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="CB38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD38">
         <f t="shared" si="2"/>
@@ -23231,111 +23390,111 @@
       </c>
       <c r="CE38">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CF38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CI38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CL38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CO38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="CQ38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CT38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX38">
         <f t="shared" ref="CX38:EC38" si="3">SUBTOTAL(9,CX2:CX37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB38">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="DC38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF38">
         <f t="shared" si="3"/>
@@ -23347,63 +23506,63 @@
       </c>
       <c r="DH38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL38">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DM38">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DN38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DO38">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="DP38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DV38">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="DW38">
         <f t="shared" si="3"/>
@@ -23411,43 +23570,43 @@
       </c>
       <c r="DX38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY38">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DZ38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED38">
         <f t="shared" ref="ED38:FI38" si="4">SUBTOTAL(9,ED2:ED37)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="EE38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH38">
         <f t="shared" si="4"/>
@@ -23455,15 +23614,15 @@
       </c>
       <c r="EI38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EJ38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL38">
         <f t="shared" si="4"/>
@@ -23471,51 +23630,51 @@
       </c>
       <c r="EM38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EO38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EP38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="ET38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EU38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV38">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="EW38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EX38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="EY38">
         <f t="shared" si="4"/>
@@ -23523,31 +23682,31 @@
       </c>
       <c r="EZ38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FB38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FC38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FE38">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="FF38">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="FG38">
         <f t="shared" si="4"/>
@@ -23555,59 +23714,59 @@
       </c>
       <c r="FH38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FI38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ38">
-        <f t="shared" ref="FJ38:GO38" si="5">SUBTOTAL(9,FJ2:FJ37)</f>
-        <v>2</v>
+        <f t="shared" ref="FJ38:GI38" si="5">SUBTOTAL(9,FJ2:FJ37)</f>
+        <v>7</v>
       </c>
       <c r="FK38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL38">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="FM38">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="FN38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV38">
         <f t="shared" si="5"/>
@@ -23615,27 +23774,27 @@
       </c>
       <c r="FW38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FX38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="GA38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GB38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GC38">
         <f t="shared" si="5"/>
@@ -23643,27 +23802,27 @@
       </c>
       <c r="GD38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GE38">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="GF38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="GG38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GI38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:186" x14ac:dyDescent="0.25">
@@ -24227,28 +24386,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E37">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Amarales"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Alta"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F2:GI37">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:GI38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24257,7 +24405,448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262269C0-9D92-4B39-9890-CA488CF8E963}">
+  <dimension ref="A1:EJ1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>281</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>282</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>283</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>285</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>183</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>286</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:GD189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
